--- a/stat_tests/combined_anova_data.xlsx
+++ b/stat_tests/combined_anova_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminebassil/Documents/Emory/3_Research/Projects/CogMap_Paper/stat_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF69E35-08E3-FF41-BA61-25A48FFDB5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{265DFC6D-22CE-7A4B-84D6-53301B335D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_anova_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="28" uniqueCount="14">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="29" uniqueCount="15">
   <si>
     <t>Sum Sq</t>
   </si>
@@ -68,11 +77,14 @@
   <si>
     <t>m_teleport_anova</t>
   </si>
+  <si>
+    <t>Corrected Pr(&gt;F)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -598,37 +610,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -651,11 +633,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -968,16 +950,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,10 +982,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>156462.386421061</v>
       </c>
@@ -1019,11 +1007,15 @@
       <c r="F2" s="1">
         <v>1.54359977281693E-25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1">
+        <f>F2*7</f>
+        <v>1.0805198409718511E-24</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>40889.124255535004</v>
       </c>
@@ -1042,11 +1034,15 @@
       <c r="F3" s="1">
         <v>3.6366621014211799E-5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G22" si="0">F3*7</f>
+        <v>2.5456634709948258E-4</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>41936.5624481091</v>
       </c>
@@ -1065,149 +1061,177 @@
       <c r="F4">
         <v>2.6417530566444402E-3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8492271396511082E-2</v>
+      </c>
+      <c r="H4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2631528.67679162</v>
+        <v>2631528.6767886998</v>
       </c>
       <c r="B5">
-        <v>1315764.33839581</v>
+        <v>1315764.3383943499</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>575.00000030627405</v>
+        <v>575.00000053242104</v>
       </c>
       <c r="E5">
-        <v>30.6878300462689</v>
+        <v>30.687830046217801</v>
       </c>
       <c r="F5" s="1">
-        <v>2.1719843756874301E-13</v>
-      </c>
-      <c r="G5" t="s">
+        <v>2.1719843745663E-13</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.52038906219641E-12</v>
+      </c>
+      <c r="H5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3296492.8800305598</v>
+        <v>3296492.8800418801</v>
       </c>
       <c r="B6">
-        <v>470927.55429007998</v>
+        <v>470927.55429169798</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>575.000000363764</v>
+        <v>575.00000031175205</v>
       </c>
       <c r="E6">
-        <v>10.9835358266198</v>
+        <v>10.9835358266514</v>
       </c>
       <c r="F6" s="1">
-        <v>4.6717416079367301E-13</v>
-      </c>
-      <c r="G6" t="s">
+        <v>4.6717416083085797E-13</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2702191258160057E-12</v>
+      </c>
+      <c r="H6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1735147.9365527299</v>
+        <v>1735147.93655122</v>
       </c>
       <c r="B7">
-        <v>123939.138325195</v>
+        <v>123939.138325087</v>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>575.00000030221202</v>
+        <v>575.00000036432596</v>
       </c>
       <c r="E7">
-        <v>2.89065686157883</v>
+        <v>2.8906568615747301</v>
       </c>
       <c r="F7">
-        <v>3.0371361029320703E-4</v>
-      </c>
-      <c r="G7" t="s">
+        <v>3.0371361028839501E-4</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.125995272018765E-3</v>
+      </c>
+      <c r="H7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>37.9646535533494</v>
+        <v>37.824029685092803</v>
       </c>
       <c r="B8">
-        <v>18.9823267766747</v>
+        <v>18.912014842546402</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>575.00000005366303</v>
+        <v>574.99999992651897</v>
       </c>
       <c r="E8">
-        <v>242.19223610673899</v>
+        <v>237.894730465751</v>
       </c>
       <c r="F8" s="1">
-        <v>5.0303068106455603E-77</v>
-      </c>
-      <c r="G8" t="s">
+        <v>5.2328611649770899E-76</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.663002815483963E-75</v>
+      </c>
+      <c r="H8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20.849098556089299</v>
+        <v>22.369797144041598</v>
       </c>
       <c r="B9">
-        <v>2.9784426508699</v>
+        <v>3.1956853062916499</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>575.00000003278103</v>
+        <v>575.00000006877497</v>
       </c>
       <c r="E9">
-        <v>38.001436505468902</v>
+        <v>40.198609239842</v>
       </c>
       <c r="F9" s="1">
-        <v>8.2065294236000401E-44</v>
-      </c>
-      <c r="G9" t="s">
+        <v>4.9236399621466303E-46</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4465479735026409E-45</v>
+      </c>
+      <c r="H9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10.089221462420699</v>
+        <v>11.8223342196451</v>
       </c>
       <c r="B10">
-        <v>0.72065867588719101</v>
+        <v>0.84445244426036303</v>
       </c>
       <c r="C10">
         <v>14</v>
       </c>
       <c r="D10">
-        <v>575.00000004604897</v>
+        <v>575.00000002615695</v>
       </c>
       <c r="E10">
-        <v>9.1947598540612603</v>
+        <v>10.622389432907999</v>
       </c>
       <c r="F10" s="1">
-        <v>2.07503590117777E-18</v>
-      </c>
-      <c r="G10" t="s">
+        <v>1.3111090749199301E-21</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1777635244395103E-21</v>
+      </c>
+      <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>136460.953734298</v>
       </c>
@@ -1226,11 +1250,15 @@
       <c r="F11" s="1">
         <v>8.9515849652108999E-23</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2661094756476296E-22</v>
+      </c>
+      <c r="H11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>42330.512599276</v>
       </c>
@@ -1249,11 +1277,15 @@
       <c r="F12" s="1">
         <v>2.04559153896676E-5</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4319140772767319E-4</v>
+      </c>
+      <c r="H12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>39701.301561335596</v>
       </c>
@@ -1272,11 +1304,15 @@
       <c r="F13">
         <v>4.33342587088057E-3</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0333981096163989E-2</v>
+      </c>
+      <c r="H13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>686.69946837429495</v>
       </c>
@@ -1295,11 +1331,15 @@
       <c r="F14" s="1">
         <v>8.2675791440871296E-32</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7873054008609904E-31</v>
+      </c>
+      <c r="H14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>243.11169908158701</v>
       </c>
@@ -1318,11 +1358,15 @@
       <c r="F15" s="1">
         <v>1.43932293597468E-9</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0075260551822761E-8</v>
+      </c>
+      <c r="H15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>303.91658231509399</v>
       </c>
@@ -1341,80 +1385,96 @@
       <c r="F16" s="1">
         <v>3.6399274169943999E-9</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5479491918960798E-8</v>
+      </c>
+      <c r="H16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>7006.6722085440397</v>
+        <v>7006.6722085431502</v>
       </c>
       <c r="B17">
-        <v>3503.3361042720198</v>
+        <v>3503.3361042715801</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>575.00000030343097</v>
+        <v>575.00000022206996</v>
       </c>
       <c r="E17">
-        <v>157.436749277149</v>
+        <v>157.43674927875401</v>
       </c>
       <c r="F17" s="1">
-        <v>2.9691135285875702E-55</v>
-      </c>
-      <c r="G17" t="s">
+        <v>2.96911353551791E-55</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0783794748625368E-54</v>
+      </c>
+      <c r="H17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>8040.1761606262198</v>
+        <v>8040.1761605301999</v>
       </c>
       <c r="B18">
-        <v>1148.5965943751701</v>
+        <v>1148.5965943614599</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18">
-        <v>575.00000023886901</v>
+        <v>575.000000265219</v>
       </c>
       <c r="E18">
-        <v>51.616889920645498</v>
+        <v>51.616889920561697</v>
       </c>
       <c r="F18" s="1">
-        <v>5.2969085918134301E-57</v>
-      </c>
-      <c r="G18" t="s">
+        <v>5.2969085858878997E-57</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7078360101215299E-56</v>
+      </c>
+      <c r="H18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>403.48061523769701</v>
+        <v>403.48061524997797</v>
       </c>
       <c r="B19">
-        <v>28.820043945549799</v>
+        <v>28.820043946426999</v>
       </c>
       <c r="C19">
         <v>14</v>
       </c>
       <c r="D19">
-        <v>575.00000022839197</v>
+        <v>575.00000033222796</v>
       </c>
       <c r="E19">
-        <v>1.2951466538648899</v>
+        <v>1.2951466539176699</v>
       </c>
       <c r="F19">
-        <v>0.20508234140127299</v>
-      </c>
-      <c r="G19" t="s">
+        <v>0.20508234136775599</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4355763895742919</v>
+      </c>
+      <c r="H19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>58664.201923076696</v>
       </c>
@@ -1433,11 +1493,15 @@
       <c r="F20" s="1">
         <v>4.1426300381365898E-11</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8998410266956126E-10</v>
+      </c>
+      <c r="H20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>51661.275073144599</v>
       </c>
@@ -1456,11 +1520,15 @@
       <c r="F21" s="1">
         <v>4.1770781388759498E-7</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9239546972131649E-6</v>
+      </c>
+      <c r="H21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>49396.054487179601</v>
       </c>
@@ -1479,22 +1547,26 @@
       <c r="F22">
         <v>1.8184293801215001E-4</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2729005660850501E-3</v>
+      </c>
+      <c r="H22" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
-      <formula>0.05</formula>
-      <formula>0.01</formula>
+  <conditionalFormatting sqref="F1:G1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>0.01</formula>
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>0.001</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+      <formula>0.05</formula>
+      <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
